--- a/src/results/Couches_Analyse_Classement.xlsx
+++ b/src/results/Couches_Analyse_Classement.xlsx
@@ -868,7 +868,7 @@
         <v>12.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>7.999999999999996</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>10.7</v>
@@ -882,7 +882,7 @@
         <v>12.5</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>7.999999999999996</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>10.7</v>
@@ -1638,7 +1638,7 @@
         <v>12.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>7.999999999999996</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>10.7</v>
@@ -1652,7 +1652,7 @@
         <v>12.5</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>7.999999999999996</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>10.7</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.8186210070534754</v>
+        <v>0.8171630878072588</v>
       </c>
     </row>
     <row r="19">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.001130253351862431</v>
+        <v>0.001173348898943019</v>
       </c>
     </row>
     <row r="20">
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.7357148541413415</v>
+        <v>0.7297575507997904</v>
       </c>
     </row>
     <row r="21">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0.002044231232949268</v>
+        <v>0.002090788248849709</v>
       </c>
     </row>
   </sheetData>
